--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5437</v>
+        <v>5.934499999999997</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.41860000000002</v>
+        <v>-21.31820000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.260699999999994</v>
+        <v>5.273599999999997</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.9038</v>
+        <v>13.8933</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>15.25900000000001</v>
+        <v>14.77090000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.4247</v>
+        <v>13.4037</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.82839999999998</v>
+        <v>-20.64689999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.36370000000002</v>
+        <v>-21.34490000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>5.426</v>
+        <v>5.239100000000004</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>14.38230000000002</v>
+        <v>14.07300000000002</v>
       </c>
     </row>
     <row r="18">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.43330000000002</v>
+        <v>-21.2341</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.67770000000001</v>
+        <v>12.8897</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.35290000000002</v>
+        <v>-21.25480000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.28220000000003</v>
+        <v>-22.30300000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
